--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2223149.325093224</v>
+        <v>2335832.950391727</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5826623.052491428</v>
+        <v>6205995.001918806</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>249.8889460581046</v>
       </c>
       <c r="V2" t="n">
-        <v>198.0175870594775</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -823,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -865,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>59.52286283173692</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>105.171577479765</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -911,10 +913,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>51.28180484925447</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>196.2309029857742</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>63.91221236482924</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>9.919095082966441</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1148,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>68.60526130391781</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1199,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>241.4219507454431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>83.82457876590487</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>110.7195227355934</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1424,19 +1426,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>32.40765776988861</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2773136898119</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1579,7 +1581,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>161.808257013443</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>355.9454719562621</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1667,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1771,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>163.397766268596</v>
       </c>
       <c r="T16" t="n">
-        <v>47.37384610069613</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1828,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>23.89780796092593</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>9.366552127977615</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886491</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>150.6248745506567</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,13 +2298,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>74.196886074609</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>91.48848503229554</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>55.01183531395594</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>78.27582229143013</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2956,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>177.3760137358549</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>151.7880808794989</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.1814536869485</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>59.00434261725447</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>108.8521060317415</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>144.7284958494691</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>110.2272920497566</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>27.0393724697871</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>335.3072186263384</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>290.2412846893639</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>27.27731368981162</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3952,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>76.64068269426208</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3977,19 +3979,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>166.0130151372144</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>124.229055783122</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.816201625927</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C2" t="n">
-        <v>1651.955875679631</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D2" t="n">
-        <v>1228.663254864631</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4331,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1751.572604680641</v>
       </c>
       <c r="V2" t="n">
-        <v>1699.600622673607</v>
+        <v>1394.083189806891</v>
       </c>
       <c r="W2" t="n">
-        <v>1699.600622673607</v>
+        <v>997.6918401072378</v>
       </c>
       <c r="X2" t="n">
-        <v>1691.921027881758</v>
+        <v>990.0122453153891</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.624161877053</v>
+        <v>988.7153793106835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>416.2236218818665</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>659.4347056307208</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M3" t="n">
-        <v>1210.100240615159</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N3" t="n">
-        <v>1210.100240615159</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O3" t="n">
-        <v>1760.765775599597</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.4711417263379</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>789.4985786052539</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>626.1818057320246</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
         <v>626.1818057320246</v>
@@ -4486,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1874.409187505008</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.213795394889</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="W4" t="n">
-        <v>1484.213795394889</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X4" t="n">
-        <v>1377.979878748662</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y4" t="n">
-        <v>1151.637110438404</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.919330369398</v>
+        <v>1780.988227140366</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.059004423102</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4571,19 +4573,19 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2068.744155457482</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>2068.744155457482</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>2061.064560665634</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.727290620524</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4649,7 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
         <v>866.8612493132769</v>
@@ -4659,10 +4661,10 @@
         <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1417.526784297715</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558.9552516858382</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="C7" t="n">
-        <v>386.9826885647542</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="D7" t="n">
-        <v>386.9826885647542</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>220.7744827176078</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>220.7744827176078</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>54.5175130118399</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4729,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1492.880289089844</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1218.027885262357</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>975.4639887081618</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>749.1212203979038</v>
+        <v>685.0860276212358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595574</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>549.9383681074144</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2155.613008721045</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2155.613008721045</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1798.123593847295</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1401.732244147642</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.052649355793</v>
+        <v>1495.547442888648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.755783351087</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.6812464869084</v>
+        <v>374.0719676282447</v>
       </c>
       <c r="C10" t="n">
-        <v>689.6812464869084</v>
+        <v>374.0719676282447</v>
       </c>
       <c r="D10" t="n">
-        <v>526.3644736136791</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1562677665327</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1492.880289089844</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1218.027885262357</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1106.189983509232</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.847215198974</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2098.741872743728</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.841142757028</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1248.548521942028</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>822.5715820898859</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4474002792861</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136876</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>427.2856093136876</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1227.727221711491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>2028.168834109293</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>2660.465710453521</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.465710453521</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2908.814659757381</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2551.32524488363</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2518.590237035258</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2518.590237035258</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2518.590237035258</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>693.0265871760246</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>693.0265871760246</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>693.0265871760246</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>693.0265871760246</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>335.7998293592829</v>
+        <v>867.6000246859418</v>
       </c>
       <c r="C13" t="n">
-        <v>308.2469872483618</v>
+        <v>695.6274615648578</v>
       </c>
       <c r="D13" t="n">
-        <v>308.2469872483618</v>
+        <v>532.3106886916285</v>
       </c>
       <c r="E13" t="n">
-        <v>308.2469872483618</v>
+        <v>366.102482844482</v>
       </c>
       <c r="F13" t="n">
-        <v>308.2469872483618</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654955</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U13" t="n">
-        <v>1551.43633415526</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V13" t="n">
-        <v>1269.724866763288</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W13" t="n">
-        <v>994.8724629358014</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X13" t="n">
-        <v>752.3085663816065</v>
+        <v>1031.042708537904</v>
       </c>
       <c r="Y13" t="n">
-        <v>525.9657980713486</v>
+        <v>867.6000246859418</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1183.889011029887</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>756.9882810431873</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>397.4474002792861</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>397.4474002792861</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4474002792861</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>427.2856093136876</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1227.727221711491</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2028.168834109293</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.465710453521</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O14" t="n">
-        <v>2660.465710453521</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453521</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2397.337629606903</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2000.94627990725</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>1589.226281074997</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1183.889011029887</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>926.8645663447228</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>926.8645663447228</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>926.8645663447228</v>
+        <v>1746.548409423375</v>
       </c>
       <c r="N15" t="n">
-        <v>1409.224304214523</v>
+        <v>1746.548409423375</v>
       </c>
       <c r="O15" t="n">
-        <v>1409.224304214523</v>
+        <v>1746.548409423375</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>981.6063033152611</v>
+        <v>845.1880873306409</v>
       </c>
       <c r="C16" t="n">
-        <v>809.6337401941771</v>
+        <v>673.2155242095569</v>
       </c>
       <c r="D16" t="n">
-        <v>646.3169673209478</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="E16" t="n">
-        <v>480.1087614738013</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
-        <v>308.2469872483618</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2115.441723535961</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.242808111238</v>
+        <v>1872.10237576186</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.242808111238</v>
+        <v>1591.917927262165</v>
       </c>
       <c r="V16" t="n">
-        <v>1915.531340719267</v>
+        <v>1310.206459870194</v>
       </c>
       <c r="W16" t="n">
-        <v>1640.67893689178</v>
+        <v>1035.354056042707</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.115040337585</v>
+        <v>1035.354056042707</v>
       </c>
       <c r="Y16" t="n">
-        <v>1171.772272027327</v>
+        <v>1035.354056042707</v>
       </c>
     </row>
     <row r="17">
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>750.4259316760281</v>
+        <v>599.7631605785812</v>
       </c>
       <c r="C19" t="n">
-        <v>750.4259316760281</v>
+        <v>599.7631605785812</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>436.4463877053519</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>270.2381818582054</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>270.2381818582054</v>
       </c>
       <c r="G19" t="n">
         <v>246.0989818976742</v>
@@ -5671,52 +5673,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299903</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358274</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302482</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2056.080916259635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1775.896467759939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1494.185000367968</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1219.332596540481</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>976.768699986286</v>
+        <v>789.9291292906468</v>
       </c>
       <c r="Y19" t="n">
-        <v>750.4259316760281</v>
+        <v>789.9291292906468</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3608.130722803817</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="C22" t="n">
-        <v>3436.158159682733</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="D22" t="n">
-        <v>3272.841386809504</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E22" t="n">
-        <v>3272.841386809504</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F22" t="n">
-        <v>3100.979612584064</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878296</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878296</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102454</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308291</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602712</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572963</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199448999</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128762</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050663</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>4299.491863653628</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>4024.63945982614</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>4024.63945982614</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>3798.296691515882</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5998,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6175,19 +6177,19 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V25" t="n">
-        <v>1710.626312340059</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.213701196326</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="X25" t="n">
-        <v>1375.649804642131</v>
+        <v>1431.217315060268</v>
       </c>
       <c r="Y25" t="n">
         <v>1375.649804642131</v>
@@ -6236,10 +6238,10 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>353.2309747943289</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6412,22 +6414,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1844.556469506584</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1844.556469506584</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1844.556469506584</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6476,10 +6478,10 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>3851.646795696768</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>3679.674232575684</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.357459702454</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>3350.149253855308</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T31" t="n">
-        <v>1933.413002695814</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.228554196118</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.517086804147</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W31" t="n">
-        <v>1096.66468297666</v>
+        <v>4268.155532719091</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>4268.155532719091</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>4041.812764408833</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1054.158777558267</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1907.815376917197</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.3984947971121</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C34" t="n">
-        <v>750.4259316760281</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6892,16 +6894,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.018283751469</v>
+        <v>1482.417937673434</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.165879923982</v>
+        <v>1482.417937673434</v>
       </c>
       <c r="X34" t="n">
-        <v>1024.601983369787</v>
+        <v>1239.85404111924</v>
       </c>
       <c r="Y34" t="n">
-        <v>1024.601983369787</v>
+        <v>1013.511272808982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
@@ -6929,55 +6931,55 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.199584662357</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991802</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478503</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>4395.762986183789</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.68756743822</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C37" t="n">
-        <v>869.7150043171358</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D37" t="n">
-        <v>706.3982314439065</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E37" t="n">
-        <v>540.1900255967601</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>2172.764118564673</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>1892.579670064977</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.441863840363</v>
+        <v>1610.868202673005</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.251463992415</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="X37" t="n">
-        <v>1041.68756743822</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="Y37" t="n">
-        <v>1041.68756743822</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.3030669618349</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C40" t="n">
-        <v>847.3030669618349</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9862940886056</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2124.336428465972</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1880.997080691872</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1600.812632192176</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1319.101164800205</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.032932228095</v>
+        <v>1319.101164800205</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.469035673901</v>
+        <v>1076.53726824601</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.469035673901</v>
+        <v>850.1944999357522</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2402.539161715824</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C41" t="n">
-        <v>1975.638431729124</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D41" t="n">
-        <v>1552.345810914124</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E41" t="n">
-        <v>1126.368871061982</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F41" t="n">
-        <v>701.2446892513819</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.793917289187</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M41" t="n">
-        <v>1943.235529686989</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>2408.271910799776</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>2408.271910799776</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.551189957704</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839606</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839606</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839606</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W41" t="n">
-        <v>3234.107524839606</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X41" t="n">
-        <v>2822.387526007354</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2822.387526007354</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945947</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.565375292397</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1048.094704761305</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C43" t="n">
-        <v>876.122141640221</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="D43" t="n">
-        <v>712.8053687669917</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5971629198452</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886377</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>1784.582169342129</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V43" t="n">
-        <v>1784.582169342129</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W43" t="n">
-        <v>1707.167338337823</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.603441783629</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.260673473371</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1413.5541171849</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1245.864202904886</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>822.5715820898859</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>822.5715820898859</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>397.4474002792861</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.235529686989</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>2743.677142084792</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>3116.551189957704</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.81465975738</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2650.459750353793</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2650.459750353793</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2238.73975152154</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1833.40248147643</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290552</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808057</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323342</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.495589596279</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279183</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496787</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259097</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259097</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259097</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259097</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>1425.419894259097</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="M45" t="n">
-        <v>1633.224300044001</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="N45" t="n">
-        <v>2433.665912441804</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839606</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839606</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839606</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839606</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400861</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.903341698539</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618176</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757442</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357323</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710615</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>505.934876840148</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>333.962313719064</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
-        <v>208.4784189886377</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>208.4784189886377</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>208.4784189886377</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4784189886377</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679213</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>2001.75583013582</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U46" t="n">
-        <v>1721.571381636125</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V46" t="n">
-        <v>1439.859914244154</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W46" t="n">
-        <v>1165.007510416666</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X46" t="n">
-        <v>922.4436138624716</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y46" t="n">
-        <v>696.1008455522136</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,19 +7990,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>268.1828480767087</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>463.2315577343861</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8219,22 +8221,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>548.8576414812763</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8295,10 +8297,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>550.6255558370718</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>462.8067063011424</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>110.3411813754878</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8474,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>175.9092261537768</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>676.0746728350423</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>675.9633363134642</v>
+        <v>260.2767127830747</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>508.5750866678849</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9884,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9960,7 +9962,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>262.439123722643</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,7 +10360,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.95407573255603</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>995.9774475394107</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>749.8109645784228</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>498.5385371580963</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>507.01334113019</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222296</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O42" t="n">
-        <v>233.0753299089947</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>413.9200752313267</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11379,19 +11381,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M45" t="n">
-        <v>233.0002206990999</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>360.019778432768</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>142.9755238000612</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>62.27108361371234</v>
       </c>
     </row>
     <row r="14">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>63.11422265058758</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>5.03593073746049</v>
       </c>
       <c r="T16" t="n">
-        <v>193.5321081956629</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>140.6965920477842</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>231.5394021683814</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37.63943447428827</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>204.6974666434424</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>180.6153947569165</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>169.0675053131994</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>86.27030149724484</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>63.52994056050414</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>120.3157989097132</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.08285533799648</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>219.8900101007969</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>132.0538482646176</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>127.375383939743</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>58.20640495629993</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>245.064507319425</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>64.98845316010744</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.648410051341614</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>142.9755238000615</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>195.46319709495</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>256.6187075496184</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>37.45454936137499</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395924.3864026088</v>
+        <v>525764.0379784381</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395924.3864026088</v>
+        <v>525764.0379784381</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805751</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805749</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395924.3864026085</v>
+        <v>525764.0379784381</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395924.3864026087</v>
+        <v>525764.0379784381</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>465954.1344089304</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089304</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089303</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="E2" t="n">
-        <v>333410.0096021966</v>
+        <v>442748.6635607901</v>
       </c>
       <c r="F2" t="n">
-        <v>333410.0096021967</v>
+        <v>442748.6635607898</v>
       </c>
       <c r="G2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="H2" t="n">
         <v>449624.3225099579</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449624.3225099578</v>
       </c>
       <c r="I2" t="n">
         <v>449624.322509958</v>
       </c>
       <c r="J2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.322509958</v>
       </c>
       <c r="K2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
         <v>449624.3225099579</v>
@@ -26350,10 +26352,10 @@
         <v>449624.3225099579</v>
       </c>
       <c r="O2" t="n">
-        <v>333410.0096021966</v>
+        <v>442748.66356079</v>
       </c>
       <c r="P2" t="n">
-        <v>333410.0096021966</v>
+        <v>442748.6635607899</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346223</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250631</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72595.40062447209</v>
+        <v>72595.40062447212</v>
       </c>
       <c r="C6" t="n">
         <v>259000.1340392093</v>
       </c>
       <c r="D6" t="n">
-        <v>259000.1340392092</v>
+        <v>259000.1340392094</v>
       </c>
       <c r="E6" t="n">
-        <v>208342.8899378509</v>
+        <v>158470.9911937716</v>
       </c>
       <c r="F6" t="n">
-        <v>283673.8410913131</v>
+        <v>365903.2788103323</v>
       </c>
       <c r="G6" t="n">
-        <v>242183.8002500444</v>
+        <v>363448.5779781033</v>
       </c>
       <c r="H6" t="n">
-        <v>371074.2000615848</v>
+        <v>371074.2000615849</v>
       </c>
       <c r="I6" t="n">
         <v>371074.2000615849</v>
       </c>
       <c r="J6" t="n">
-        <v>225540.5301267682</v>
+        <v>225540.5301267685</v>
       </c>
       <c r="K6" t="n">
-        <v>371074.2000615847</v>
+        <v>371074.2000615849</v>
       </c>
       <c r="L6" t="n">
         <v>371074.2000615848</v>
       </c>
       <c r="M6" t="n">
-        <v>308200.2630962111</v>
+        <v>197943.7088559453</v>
       </c>
       <c r="N6" t="n">
         <v>371074.2000615848</v>
       </c>
       <c r="O6" t="n">
-        <v>283673.841091313</v>
+        <v>365903.2788103324</v>
       </c>
       <c r="P6" t="n">
-        <v>283673.8410913131</v>
+        <v>365903.2788103324</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>5.882414251447216</v>
       </c>
       <c r="V2" t="n">
-        <v>155.8969336655355</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>217.8597411829618</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>134.9666801088879</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>302.6327158757585</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>196.1965332168823</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>124.3520966601157</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>132.4392107239607</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>150.1110539418954</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>159.8619465992154</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>104.4397302590401</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28017,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.4187348530595</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.742005345385692e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28743,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29001,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.757261086117069e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>245.6677613624791</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>440.0596680121639</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34939,22 +34941,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35015,11 +35017,11 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>440.0596680121639</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35194,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>155.2981118204434</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>638.6837134790181</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>638.6837134790181</v>
+        <v>222.9970899486287</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.0720487112745</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391562</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36604,13 +36606,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>225.0481643666189</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,7 +37080,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>958.5461846399789</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>462.773936363287</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>469.733718295744</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099016</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O42" t="n">
-        <v>209.9034401867724</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>376.6404523968807</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="M45" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2335832.950391727</v>
+        <v>2335114.960276869</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760739</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6205995.001918806</v>
+        <v>6205995.001918805</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -667,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>395.8803852126798</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>249.8889460581046</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>59.52286283173692</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>180.8930283756565</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>196.2309029857742</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.91221236482924</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>401.6397036243791</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.4219507454431</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.82457876590487</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1384,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>292.3236405495131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.808257013443</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>342.2257519556457</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>163.397766268596</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>185.3469142315236</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.89780796092593</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886491</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.6248745506567</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.01183531395594</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>78.27582229143013</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3009,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>151.7880808794989</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,10 +3246,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>59.00434261725447</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.25534642052892</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>108.8521060317415</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>110.2272920497566</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>290.2412846893639</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>27.27731368981162</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686371</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.9074190595575</v>
+        <v>912.7655429749336</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728575</v>
+        <v>485.8648129882337</v>
       </c>
       <c r="D2" t="n">
-        <v>526.7544722982618</v>
+        <v>466.6125962136381</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>444.6760604018997</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,19 +4363,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1751.572604680641</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1394.083189806891</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W2" t="n">
-        <v>997.6918401072378</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X2" t="n">
-        <v>990.0122453153891</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y2" t="n">
-        <v>988.7153793106835</v>
+        <v>1332.613907266464</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1874.409187505008</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1592.697720113037</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1317.84531628555</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1317.84531628555</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.988227140366</v>
+        <v>729.6507098898962</v>
       </c>
       <c r="C5" t="n">
-        <v>1758.12790119407</v>
+        <v>302.7499799031963</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.83528037907</v>
+        <v>283.4977631286007</v>
       </c>
       <c r="E5" t="n">
-        <v>908.8583405269275</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1805.772648188046</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.093053396197</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.796187391491</v>
+        <v>1149.499074181426</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.5282373537315</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>620.5282373537315</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.0860276212358</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>920.4145973156845</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>493.5138673289846</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W8" t="n">
-        <v>1503.227037680497</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X8" t="n">
-        <v>1495.547442888648</v>
+        <v>937.5194235715162</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>936.2225575668106</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.0719676282447</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>374.0719676282447</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7551947550154</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7551947550154</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5050,19 +5050,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5117,19 +5117,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>867.6000246859418</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C13" t="n">
-        <v>695.6274615648578</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D13" t="n">
-        <v>532.3106886916285</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E13" t="n">
-        <v>366.102482844482</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
-        <v>366.102482844482</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5229,22 +5229,22 @@
         <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2110.354924811253</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1830.170476311557</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.459008919586</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.606605092099</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X13" t="n">
-        <v>1031.042708537904</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y13" t="n">
-        <v>867.6000246859418</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5317,13 +5317,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M15" t="n">
-        <v>1746.548409423375</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.548409423375</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1746.548409423375</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>845.1880873306409</v>
+        <v>701.3918188387953</v>
       </c>
       <c r="C16" t="n">
-        <v>673.2155242095569</v>
+        <v>529.4192557177113</v>
       </c>
       <c r="D16" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="E16" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2115.441723535961</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1872.10237576186</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1591.917927262165</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1310.206459870194</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1035.354056042707</v>
+        <v>1117.900555861119</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.354056042707</v>
+        <v>1117.900555861119</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.354056042707</v>
+        <v>891.5577875508609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,34 +5503,34 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.7631605785812</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>599.7631605785812</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>436.4463877053519</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>270.2381818582054</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>270.2381818582054</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5715,10 +5715,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906468</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>789.9291292906468</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>534.5364572184669</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>913.0255634586812</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>686.6827951484232</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1955.492679006434</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1673.781211614463</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1673.781211614463</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1431.217315060268</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.5477476675582</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>353.2309747943289</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
         <v>274.1644876312681</v>
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3851.646795696768</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3679.674232575684</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3516.357459702454</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3350.149253855308</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4421.476826536767</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4268.155532719091</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4268.155532719091</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>4041.812764408833</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6709,7 +6709,7 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
         <v>3561.711740982687</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.417937673434</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1482.417937673434</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1239.85404111924</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1013.511272808982</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,7 +6946,7 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
         <v>3561.711740982687</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>3306.448039710919</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>4395.762986183789</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>919.5070618231949</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C37" t="n">
-        <v>747.5344987021109</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D37" t="n">
-        <v>584.2177258288816</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2172.764118564673</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1892.579670064977</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1610.868202673005</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1336.015798845518</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1336.015798845518</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1109.673030535261</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7177,25 +7177,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.1944999357522</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C40" t="n">
-        <v>850.1944999357522</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2124.336428465972</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>1880.997080691872</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U40" t="n">
-        <v>1600.812632192176</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V40" t="n">
-        <v>1319.101164800205</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W40" t="n">
-        <v>1319.101164800205</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X40" t="n">
-        <v>1076.53726824601</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y40" t="n">
-        <v>850.1944999357522</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2533.780365848253</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2106.879635861554</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1683.587015046554</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1257.610075194411</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>832.4858933838116</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>428.1468309732602</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4782.921672994137</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4524.566763590549</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4167.077348716799</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3770.685999017146</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3358.966000184893</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.628730139784</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>1799.058168809827</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>371.1946237414806</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.354924811253</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>1867.015577037153</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1586.831128537457</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1305.119661145486</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>1030.267257317999</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>787.7033607638042</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>561.3605924535462</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7693,7 +7693,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>303.0855804095302</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>303.0855804095302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>303.0855804095302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.566858421002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183.258067403227</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.285504282143</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>197.4953338758221</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7836,22 +7836,22 @@
         <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>2280.489972292118</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>2280.489972292118</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.183104807232</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>1842.330700979745</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>1599.766804425551</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.424036115293</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>452.5855512828693</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>550.6255558370718</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>110.3411813754878</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721211</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>814.1663547822778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>749.7358553685299</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,7 +9023,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6255543726317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9178,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>883.9207714806259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10126,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>262.439123722643</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10357,10 +10357,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N32" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10594,10 +10594,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.8109645784228</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10825,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10837,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>119.7858681845732</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N42" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11159,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11308,19 +11308,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>227.5743145228559</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>107.9720312369327</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.27108361371234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>73.42412869296902</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>5.03593073746049</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>86.75696555768849</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>140.6965920477842</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.63943447428827</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.0675053131994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>118.557719078891</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>86.27030149724484</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>120.3157989097132</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>219.8900101007969</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>89.29077736814605</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>132.0538482646176</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.7184220815447</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>58.20640495629993</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.648410051341614</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9755238000615</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.15019490184648</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>525764.0379784381</v>
+        <v>525764.0379784382</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533928.8829805751</v>
+        <v>533928.8829805749</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805749</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>465954.1344089303</v>
+      </c>
+      <c r="C2" t="n">
         <v>465954.1344089304</v>
       </c>
-      <c r="C2" t="n">
-        <v>465954.1344089303</v>
-      </c>
       <c r="D2" t="n">
-        <v>465954.1344089305</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
         <v>442748.6635607901</v>
       </c>
       <c r="F2" t="n">
-        <v>442748.6635607898</v>
+        <v>442748.66356079</v>
       </c>
       <c r="G2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449624.3225099581</v>
+      </c>
+      <c r="I2" t="n">
         <v>449624.3225099578</v>
       </c>
-      <c r="H2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449624.322509958</v>
-      </c>
       <c r="J2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="K2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="L2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099577</v>
       </c>
       <c r="M2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="N2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="O2" t="n">
+        <v>442748.6635607898</v>
+      </c>
+      <c r="P2" t="n">
         <v>442748.66356079</v>
-      </c>
-      <c r="P2" t="n">
-        <v>442748.6635607899</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
         <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="I4" t="n">
-        <v>800.0602599433672</v>
-      </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72595.40062447212</v>
+        <v>72595.40062447201</v>
       </c>
       <c r="C6" t="n">
         <v>259000.1340392093</v>
       </c>
       <c r="D6" t="n">
-        <v>259000.1340392094</v>
+        <v>259000.1340392093</v>
       </c>
       <c r="E6" t="n">
-        <v>158470.9911937716</v>
+        <v>158398.4740973712</v>
       </c>
       <c r="F6" t="n">
-        <v>365903.2788103323</v>
+        <v>365830.7617139321</v>
       </c>
       <c r="G6" t="n">
-        <v>363448.5779781033</v>
+        <v>363397.5473159191</v>
       </c>
       <c r="H6" t="n">
-        <v>371074.2000615849</v>
+        <v>371023.1693994007</v>
       </c>
       <c r="I6" t="n">
-        <v>371074.2000615849</v>
+        <v>371023.1693994005</v>
       </c>
       <c r="J6" t="n">
-        <v>225540.5301267685</v>
+        <v>225489.4994645839</v>
       </c>
       <c r="K6" t="n">
-        <v>371074.2000615849</v>
+        <v>371023.1693994005</v>
       </c>
       <c r="L6" t="n">
-        <v>371074.2000615848</v>
+        <v>371023.1693994004</v>
       </c>
       <c r="M6" t="n">
-        <v>197943.7088559453</v>
+        <v>197892.678193761</v>
       </c>
       <c r="N6" t="n">
-        <v>371074.2000615848</v>
+        <v>371023.1693994005</v>
       </c>
       <c r="O6" t="n">
-        <v>365903.2788103324</v>
+        <v>365830.7617139319</v>
       </c>
       <c r="P6" t="n">
-        <v>365903.2788103324</v>
+        <v>365830.761713932</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>24.99255477981393</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>5.882414251447216</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.9606863843802</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>217.8597411829618</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
+        <v>240.8241420779645</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27669,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>196.1965332168823</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.3520966601157</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.41999098247055</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>159.8619465992154</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.4397302590401</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>415.010189472638</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>776.7350918828461</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>726.6390748562019</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35898,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4895085811942</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36846,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>225.0481643666189</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N32" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37557,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>81.47382575195027</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N42" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38028,19 +38028,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>205.0592278086263</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
